--- a/sampledata/DIP-chloride_origin.xlsx
+++ b/sampledata/DIP-chloride_origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D342F62C-CD6A-1747-A4CD-FA86F0AB0CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA60391-BAED-0245-B771-EE9B9249E639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="500" windowWidth="24700" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="1220" windowWidth="24700" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - DIP-chloride" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="263">
   <si>
     <t>DIP-chloride</t>
   </si>
@@ -678,9 +678,6 @@
   </si>
   <si>
     <t>H. C. Brown et al., .  J. Am. Chem. Soc., 110.5 (1988): 1539.</t>
-  </si>
-  <si>
-    <t>H. C. Brown et al., .  J. Am. Chem. Soc., 110.5 (1988): 1539.</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -688,9 +685,6 @@
   </si>
   <si>
     <t>https://pubs.acs.org/doi/10.1021/jo00248a005</t>
-  </si>
-  <si>
-    <t>M. Srebnik et al., . J. Org. Chem., 53.13 (1988): 2916.</t>
   </si>
   <si>
     <t>M. Srebnik et al., . J. Org. Chem., 53.13 (1988): 2916.</t>
@@ -702,13 +696,6 @@
   </si>
   <si>
     <t>H. C. Brown et al., . J. Org. Chem., 54.19 (1989): 4504.</t>
-  </si>
-  <si>
-    <t>H. C. Brown et al., . J. Org. Chem., 54.19 (1989): 4504.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>H. C. Brown et al., .  J. Am. Chem. Soc., 110.5 (1988): 1561.</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -723,9 +710,6 @@
   </si>
   <si>
     <t>P. V. Ramachandran et al., . J. Org.Chem., 67.15 (2002): 5315.</t>
-  </si>
-  <si>
-    <t>P. V. Ramachandran et al., . J. Org.Chem., 67.15 (2002): 5315.</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -753,9 +737,6 @@
   </si>
   <si>
     <t>M. Zhao et al., .  Tetrahedron Lett., 38.15 (1997): 2641.</t>
-  </si>
-  <si>
-    <t>M. Zhao et al., .  Tetrahedron Lett., 38.15 (1997): 2641.</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -775,9 +756,6 @@
   </si>
   <si>
     <t> P. V. Ramachandran et al., Tetrahedron Lett., 35.14 (1994): 2141.</t>
-  </si>
-  <si>
-    <t> P. V. Ramachandran et al., Tetrahedron Lett., 35.14 (1994): 2141.</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -810,9 +788,6 @@
   <si>
     <t>Ramachandran, P. Veeraraghavan, Baoqing Gong, and Aleksandar V. Teodorović. "The influence of fluorine on the asymmetric reduction of fluoromethyl ketones." Journal of fluorine chemistry 128.7 (2007): 844-850.</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t> P. V. Ramachandran et al., J Fluor Chem., 128.7 (2007): 844.</t>
   </si>
   <si>
     <t> P. V. Ramachandran et al., J Fluor Chem., 128.7 (2007): 844.</t>
@@ -2309,8 +2284,8 @@
   </sheetPr>
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -2391,7 +2366,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -2433,7 +2408,7 @@
         <v>211</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -2476,9 +2451,7 @@
       <c r="K4" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="L4" s="17" t="s">
-        <v>214</v>
-      </c>
+      <c r="L4" s="17"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
@@ -2520,9 +2493,7 @@
       <c r="K5" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L5" s="17"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -2564,9 +2535,7 @@
       <c r="K6" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L6" s="17"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -2608,9 +2577,7 @@
       <c r="K7" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L7" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L7" s="17"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -2652,9 +2619,7 @@
       <c r="K8" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L8" s="17"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
@@ -2696,9 +2661,7 @@
       <c r="K9" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L9" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L9" s="17"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
@@ -2740,9 +2703,7 @@
       <c r="K10" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L10" s="17"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -2784,9 +2745,7 @@
       <c r="K11" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L11" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L11" s="17"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -2828,9 +2787,7 @@
       <c r="K12" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L12" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L12" s="17"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -2872,9 +2829,7 @@
       <c r="K13" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L13" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L13" s="17"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -2916,9 +2871,7 @@
       <c r="K14" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L14" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L14" s="17"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -2960,9 +2913,7 @@
       <c r="K15" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L15" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L15" s="17"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -3004,9 +2955,7 @@
       <c r="K16" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L16" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L16" s="17"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -3048,9 +2997,7 @@
       <c r="K17" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L17" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L17" s="17"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -3092,9 +3039,7 @@
       <c r="K18" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L18" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L18" s="17"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -3136,9 +3081,7 @@
       <c r="K19" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L19" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L19" s="17"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -3180,9 +3123,7 @@
       <c r="K20" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L20" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L20" s="17"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -3224,9 +3165,7 @@
       <c r="K21" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L21" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L21" s="17"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -3268,9 +3207,7 @@
       <c r="K22" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L22" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L22" s="17"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
@@ -3312,9 +3249,7 @@
       <c r="K23" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L23" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L23" s="17"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -3356,9 +3291,7 @@
       <c r="K24" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L24" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="L24" s="17"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -3401,7 +3334,7 @@
         <v>212</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>65</v>
@@ -3446,9 +3379,7 @@
       <c r="K26" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="L26" s="17" t="s">
-        <v>222</v>
-      </c>
+      <c r="L26" s="17"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
@@ -3490,9 +3421,7 @@
       <c r="K27" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="L27" s="17" t="s">
-        <v>215</v>
-      </c>
+      <c r="L27" s="17"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -3532,9 +3461,7 @@
       <c r="K28" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="L28" s="17" t="s">
-        <v>215</v>
-      </c>
+      <c r="L28" s="17"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -3574,10 +3501,10 @@
         <v>76</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
@@ -3618,11 +3545,9 @@
         <v>76</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>218</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="L30" s="19"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -3662,11 +3587,9 @@
         <v>76</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>217</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="L31" s="19"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -3706,11 +3629,9 @@
         <v>76</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>217</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="L32" s="19"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
@@ -3750,11 +3671,9 @@
         <v>76</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>217</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="L33" s="19"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -3794,11 +3713,9 @@
         <v>76</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>217</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="L34" s="19"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
@@ -3838,11 +3755,9 @@
         <v>76</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>217</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="L35" s="19"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
@@ -3882,11 +3797,9 @@
         <v>76</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>217</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="L36" s="19"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
@@ -3926,11 +3839,9 @@
         <v>76</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="L37" s="19" t="s">
-        <v>217</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="L37" s="19"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
@@ -3970,10 +3881,10 @@
         <v>96</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
@@ -4014,11 +3925,9 @@
         <v>96</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="L39" s="19" t="s">
-        <v>221</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="L39" s="19"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
@@ -4058,11 +3967,9 @@
         <v>96</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="L40" s="19" t="s">
-        <v>220</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="L40" s="19"/>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
@@ -4102,11 +4009,9 @@
         <v>96</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="L41" s="19" t="s">
-        <v>220</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="L41" s="19"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
@@ -4139,13 +4044,13 @@
         <v>101</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
@@ -4182,11 +4087,9 @@
         <v>102</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="L43" s="19" t="s">
-        <v>227</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="L43" s="19"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
@@ -4222,11 +4125,9 @@
         <v>102</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>226</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="L44" s="19"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
@@ -4264,13 +4165,11 @@
         <v>102</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="L45" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="L45" s="19"/>
+      <c r="M45" s="21" t="s">
         <v>226</v>
-      </c>
-      <c r="M45" s="21" t="s">
-        <v>231</v>
       </c>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
@@ -4310,11 +4209,9 @@
         <v>102</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="L46" s="19" t="s">
-        <v>226</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="L46" s="19"/>
       <c r="M46" s="21"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
@@ -4350,11 +4247,9 @@
         <v>102</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="L47" s="19" t="s">
-        <v>227</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="L47" s="19"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
@@ -4388,16 +4283,16 @@
         <v>116</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>117</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
@@ -4432,17 +4327,15 @@
         <v>116</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>117</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="L49" s="19" t="s">
-        <v>235</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="L49" s="19"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
@@ -4476,17 +4369,15 @@
         <v>116</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>117</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="L50" s="19" t="s">
-        <v>234</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="L50" s="19"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
@@ -4520,17 +4411,15 @@
         <v>116</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>117</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="L51" s="19" t="s">
-        <v>234</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="L51" s="19"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
@@ -4561,19 +4450,19 @@
         <v>5</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>126</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M52" s="11" t="s">
         <v>128</v>
@@ -4609,7 +4498,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>131</v>
@@ -4618,11 +4507,9 @@
         <v>127</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="L53" s="19" t="s">
-        <v>241</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L53" s="19"/>
       <c r="M53" s="11" t="s">
         <v>128</v>
       </c>
@@ -4657,7 +4544,7 @@
         <v>9</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>134</v>
@@ -4666,11 +4553,9 @@
         <v>127</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="L54" s="19" t="s">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L54" s="19"/>
       <c r="M54" s="11" t="s">
         <v>128</v>
       </c>
@@ -4705,7 +4590,7 @@
         <v>9</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>137</v>
@@ -4714,11 +4599,9 @@
         <v>127</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="L55" s="19" t="s">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L55" s="19"/>
       <c r="M55" s="11" t="s">
         <v>128</v>
       </c>
@@ -4753,7 +4636,7 @@
         <v>10.5</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I56" s="11" t="s">
         <v>140</v>
@@ -4762,11 +4645,9 @@
         <v>127</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="L56" s="19" t="s">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L56" s="19"/>
       <c r="M56" s="11" t="s">
         <v>128</v>
       </c>
@@ -4801,7 +4682,7 @@
         <v>11</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>143</v>
@@ -4810,11 +4691,9 @@
         <v>127</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="L57" s="19" t="s">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L57" s="19"/>
       <c r="M57" s="11" t="s">
         <v>144</v>
       </c>
@@ -4849,7 +4728,7 @@
         <v>5</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>147</v>
@@ -4858,11 +4737,9 @@
         <v>127</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="L58" s="19" t="s">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L58" s="19"/>
       <c r="M58" s="11" t="s">
         <v>128</v>
       </c>
@@ -4897,7 +4774,7 @@
         <v>40</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>150</v>
@@ -4906,11 +4783,9 @@
         <v>127</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="L59" s="19" t="s">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L59" s="19"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
@@ -4941,7 +4816,7 @@
         <v>96.5</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>153</v>
@@ -4950,11 +4825,9 @@
         <v>127</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="L60" s="19" t="s">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L60" s="19"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
@@ -4985,7 +4858,7 @@
         <v>97.5</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>156</v>
@@ -4994,11 +4867,9 @@
         <v>127</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="L61" s="19" t="s">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L61" s="19"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
@@ -5029,7 +4900,7 @@
         <v>97</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>159</v>
@@ -5038,11 +4909,9 @@
         <v>127</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="L62" s="19" t="s">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L62" s="19"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
@@ -5073,7 +4942,7 @@
         <v>97</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>162</v>
@@ -5082,11 +4951,9 @@
         <v>127</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="L63" s="19" t="s">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L63" s="19"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
@@ -5117,7 +4984,7 @@
         <v>60</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>165</v>
@@ -5126,11 +4993,9 @@
         <v>127</v>
       </c>
       <c r="K64" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="L64" s="19" t="s">
-        <v>240</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="L64" s="19"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
@@ -5165,13 +5030,13 @@
         <v>12</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M65" s="11" t="s">
         <v>168</v>
@@ -5209,13 +5074,13 @@
       </c>
       <c r="I66" s="13"/>
       <c r="J66" s="19" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
@@ -5226,7 +5091,7 @@
       <c r="A67" s="15"/>
       <c r="B67" s="14"/>
       <c r="C67" s="21" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D67" s="13">
         <v>-82</v>
@@ -5247,13 +5112,13 @@
         <v>140</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
@@ -5264,7 +5129,7 @@
       <c r="A68" s="15"/>
       <c r="B68" s="14"/>
       <c r="C68" s="21" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D68" s="13">
         <v>91</v>
@@ -5285,16 +5150,14 @@
         <v>147</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="L68" s="19" t="s">
-        <v>251</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="L68" s="19"/>
       <c r="M68" s="21" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
@@ -5304,7 +5167,7 @@
       <c r="A69" s="15"/>
       <c r="B69" s="14"/>
       <c r="C69" s="21" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D69" s="13">
         <v>-18</v>
@@ -5328,11 +5191,9 @@
         <v>172</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="L69" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="L69" s="19"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
@@ -5342,7 +5203,7 @@
       <c r="A70" s="15"/>
       <c r="B70" s="14"/>
       <c r="C70" s="21" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D70" s="13">
         <v>-15</v>
@@ -5366,11 +5227,9 @@
         <v>172</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="L70" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="L70" s="19"/>
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
@@ -5380,7 +5239,7 @@
       <c r="A71" s="15"/>
       <c r="B71" s="14"/>
       <c r="C71" s="21" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D71" s="13">
         <v>91</v>
@@ -5404,13 +5263,11 @@
         <v>172</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="L71" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="L71" s="19"/>
       <c r="M71" s="21" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
@@ -5420,7 +5277,7 @@
       <c r="A72" s="15"/>
       <c r="B72" s="14"/>
       <c r="C72" s="21" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D72" s="13">
         <v>-95</v>
@@ -5444,11 +5301,9 @@
         <v>172</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="L72" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="L72" s="19"/>
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
@@ -5458,7 +5313,7 @@
       <c r="A73" s="15"/>
       <c r="B73" s="14"/>
       <c r="C73" s="21" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D73" s="13">
         <v>-85</v>
@@ -5482,11 +5337,9 @@
         <v>172</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="L73" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="L73" s="19"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
@@ -5496,7 +5349,7 @@
       <c r="A74" s="15"/>
       <c r="B74" s="14"/>
       <c r="C74" s="21" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D74" s="13">
         <v>90</v>
@@ -5520,13 +5373,11 @@
         <v>172</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="L74" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="L74" s="19"/>
       <c r="M74" s="21" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
@@ -5536,7 +5387,7 @@
       <c r="A75" s="15"/>
       <c r="B75" s="14"/>
       <c r="C75" s="21" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D75" s="13">
         <v>61</v>
@@ -5560,11 +5411,9 @@
         <v>172</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="L75" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="L75" s="19"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
@@ -5574,7 +5423,7 @@
       <c r="A76" s="15"/>
       <c r="B76" s="14"/>
       <c r="C76" s="21" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D76" s="13">
         <v>-5</v>
@@ -5598,11 +5447,9 @@
         <v>172</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="L76" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="L76" s="19"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
@@ -5612,7 +5459,7 @@
       <c r="A77" s="15"/>
       <c r="B77" s="14"/>
       <c r="C77" s="21" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D77" s="13">
         <v>96</v>
@@ -5636,11 +5483,9 @@
         <v>172</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="L77" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="L77" s="19"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
@@ -5663,13 +5508,13 @@
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="19" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
@@ -5707,13 +5552,13 @@
         <v>181</v>
       </c>
       <c r="J79" s="19" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L79" s="19" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
@@ -5751,8 +5596,10 @@
       <c r="J80" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
+      <c r="K80" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="L80" s="19"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
@@ -5783,8 +5630,10 @@
       <c r="J81" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
+      <c r="K81" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="L81" s="19"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
@@ -5811,7 +5660,9 @@
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
+      <c r="K82" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
@@ -5839,7 +5690,9 @@
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
+      <c r="K83" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
@@ -5867,7 +5720,9 @@
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
+      <c r="K84" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
@@ -5895,7 +5750,9 @@
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
+      <c r="K85" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
@@ -5923,7 +5780,9 @@
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
       <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
+      <c r="K86" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
@@ -5951,7 +5810,9 @@
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
+      <c r="K87" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
@@ -5983,7 +5844,9 @@
       <c r="J88" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="K88" s="11"/>
+      <c r="K88" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L88" s="11"/>
       <c r="M88" s="11" t="s">
         <v>191</v>
@@ -6013,7 +5876,9 @@
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
+      <c r="K89" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L89" s="13"/>
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
@@ -6041,7 +5906,9 @@
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
+      <c r="K90" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L90" s="13"/>
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
@@ -6069,7 +5936,9 @@
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
+      <c r="K91" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L91" s="13"/>
       <c r="M91" s="11" t="s">
         <v>195</v>
@@ -6099,7 +5968,9 @@
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
+      <c r="K92" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
@@ -6127,7 +5998,9 @@
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
+      <c r="K93" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
@@ -6157,7 +6030,9 @@
         <v>199</v>
       </c>
       <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
+      <c r="K94" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L94" s="13"/>
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
@@ -6185,7 +6060,9 @@
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
+      <c r="K95" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
@@ -6213,7 +6090,9 @@
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
+      <c r="K96" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L96" s="13"/>
       <c r="M96" s="13"/>
       <c r="N96" s="13"/>
@@ -6241,7 +6120,9 @@
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
+      <c r="K97" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L97" s="13"/>
       <c r="M97" s="13"/>
       <c r="N97" s="13"/>
@@ -6269,7 +6150,9 @@
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
+      <c r="K98" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L98" s="13"/>
       <c r="M98" s="11" t="s">
         <v>204</v>
@@ -6299,7 +6182,9 @@
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
+      <c r="K99" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L99" s="13"/>
       <c r="M99" s="11" t="s">
         <v>204</v>
@@ -6329,7 +6214,9 @@
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
+      <c r="K100" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L100" s="13"/>
       <c r="M100" s="11" t="s">
         <v>204</v>
@@ -6361,7 +6248,9 @@
         <v>207</v>
       </c>
       <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
+      <c r="K101" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L101" s="13"/>
       <c r="M101" s="13"/>
       <c r="N101" s="13"/>
@@ -6389,7 +6278,9 @@
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
+      <c r="K102" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L102" s="13"/>
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
@@ -6417,7 +6308,9 @@
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
+      <c r="K103" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
@@ -6445,7 +6338,9 @@
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
+      <c r="K104" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L104" s="13"/>
       <c r="M104" s="13"/>
       <c r="N104" s="13"/>
@@ -6473,7 +6368,9 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
+      <c r="K105" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L105" s="13"/>
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
@@ -6501,7 +6398,9 @@
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
+      <c r="K106" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L106" s="13"/>
       <c r="M106" s="13"/>
       <c r="N106" s="13"/>
@@ -6529,7 +6428,9 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
+      <c r="K107" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
@@ -6557,7 +6458,9 @@
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
+      <c r="K108" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>

--- a/sampledata/DIP-chloride_origin.xlsx
+++ b/sampledata/DIP-chloride_origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA60391-BAED-0245-B771-EE9B9249E639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D889A0-5894-CD48-8935-2C759A0511CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1220" windowWidth="24700" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5980" yWindow="2700" windowWidth="24700" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - DIP-chloride" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="264">
   <si>
     <t>DIP-chloride</t>
   </si>
@@ -866,6 +866,10 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/095741669480057X</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>includeF</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1103,9 +1107,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1120,6 +1121,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2284,8 +2288,8 @@
   </sheetPr>
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F29" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -2306,24 +2310,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" ht="18.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2368,7 +2372,9 @@
       <c r="N2" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="18.5" customHeight="1">
@@ -2404,10 +2410,10 @@
       <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>213</v>
       </c>
       <c r="M3" s="8"/>
@@ -2448,10 +2454,10 @@
       <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
@@ -2490,10 +2496,10 @@
       <c r="J5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -2532,10 +2538,10 @@
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L6" s="17"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -2574,10 +2580,10 @@
       <c r="J7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L7" s="17"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -2616,10 +2622,10 @@
       <c r="J8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
@@ -2658,10 +2664,10 @@
       <c r="J9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L9" s="17"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
@@ -2700,10 +2706,10 @@
       <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -2742,10 +2748,10 @@
       <c r="J11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -2784,10 +2790,10 @@
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L12" s="17"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -2826,10 +2832,10 @@
       <c r="J13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L13" s="17"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -2868,10 +2874,10 @@
       <c r="J14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -2910,10 +2916,10 @@
       <c r="J15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -2952,10 +2958,10 @@
       <c r="J16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L16" s="17"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -2994,10 +3000,10 @@
       <c r="J17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L17" s="17"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -3036,10 +3042,10 @@
       <c r="J18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -3078,10 +3084,10 @@
       <c r="J19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L19" s="17"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -3120,10 +3126,10 @@
       <c r="J20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L20" s="17"/>
+      <c r="L20" s="16"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -3162,10 +3168,10 @@
       <c r="J21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L21" s="17"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -3204,10 +3210,10 @@
       <c r="J22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L22" s="17"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
@@ -3246,10 +3252,10 @@
       <c r="J23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L23" s="17"/>
+      <c r="L23" s="16"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -3288,10 +3294,10 @@
       <c r="J24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="L24" s="17"/>
+      <c r="L24" s="16"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -3330,10 +3336,10 @@
       <c r="J25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="16" t="s">
         <v>214</v>
       </c>
       <c r="M25" s="11" t="s">
@@ -3376,10 +3382,10 @@
       <c r="J26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="16"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
@@ -3418,10 +3424,10 @@
       <c r="J27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="16"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -3458,10 +3464,10 @@
       <c r="J28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="L28" s="17"/>
+      <c r="L28" s="16"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -3500,10 +3506,10 @@
       <c r="J29" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="18" t="s">
         <v>216</v>
       </c>
       <c r="M29" s="13"/>
@@ -3544,10 +3550,10 @@
       <c r="J30" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="L30" s="19"/>
+      <c r="L30" s="18"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -3586,10 +3592,10 @@
       <c r="J31" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="L31" s="19"/>
+      <c r="L31" s="18"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -3628,10 +3634,10 @@
       <c r="J32" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="L32" s="19"/>
+      <c r="L32" s="18"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
@@ -3670,10 +3676,10 @@
       <c r="J33" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="L33" s="19"/>
+      <c r="L33" s="18"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -3712,10 +3718,10 @@
       <c r="J34" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="L34" s="19"/>
+      <c r="L34" s="18"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
@@ -3754,10 +3760,10 @@
       <c r="J35" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="L35" s="19"/>
+      <c r="L35" s="18"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
@@ -3796,10 +3802,10 @@
       <c r="J36" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="L36" s="19"/>
+      <c r="L36" s="18"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
@@ -3838,10 +3844,10 @@
       <c r="J37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="L37" s="19"/>
+      <c r="L37" s="18"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
@@ -3880,10 +3886,10 @@
       <c r="J38" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="18" t="s">
         <v>218</v>
       </c>
       <c r="M38" s="13"/>
@@ -3927,7 +3933,7 @@
       <c r="K39" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="L39" s="19"/>
+      <c r="L39" s="18"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
@@ -3969,7 +3975,7 @@
       <c r="K40" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="L40" s="19"/>
+      <c r="L40" s="18"/>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
@@ -4011,7 +4017,7 @@
       <c r="K41" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="L41" s="19"/>
+      <c r="L41" s="18"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
@@ -4043,13 +4049,13 @@
       <c r="I42" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="K42" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="L42" s="19" t="s">
+      <c r="L42" s="18" t="s">
         <v>222</v>
       </c>
       <c r="M42" s="13"/>
@@ -4089,7 +4095,7 @@
       <c r="K43" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="L43" s="19"/>
+      <c r="L43" s="18"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
@@ -4127,7 +4133,7 @@
       <c r="K44" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="L44" s="19"/>
+      <c r="L44" s="18"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
@@ -4167,8 +4173,8 @@
       <c r="K45" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="L45" s="19"/>
-      <c r="M45" s="21" t="s">
+      <c r="L45" s="18"/>
+      <c r="M45" s="20" t="s">
         <v>226</v>
       </c>
       <c r="N45" s="13"/>
@@ -4211,8 +4217,8 @@
       <c r="K46" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="L46" s="19"/>
-      <c r="M46" s="21"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="20"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
@@ -4249,7 +4255,7 @@
       <c r="K47" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="L47" s="19"/>
+      <c r="L47" s="18"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
@@ -4282,16 +4288,16 @@
       <c r="H48" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="21" t="s">
+      <c r="I48" s="20" t="s">
         <v>228</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K48" s="20" t="s">
+      <c r="K48" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="L48" s="19" t="s">
+      <c r="L48" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M48" s="13"/>
@@ -4326,7 +4332,7 @@
       <c r="H49" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I49" s="21" t="s">
+      <c r="I49" s="20" t="s">
         <v>228</v>
       </c>
       <c r="J49" s="11" t="s">
@@ -4335,7 +4341,7 @@
       <c r="K49" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="L49" s="19"/>
+      <c r="L49" s="18"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
@@ -4368,7 +4374,7 @@
       <c r="H50" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="20" t="s">
         <v>228</v>
       </c>
       <c r="J50" s="11" t="s">
@@ -4377,7 +4383,7 @@
       <c r="K50" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="L50" s="19"/>
+      <c r="L50" s="18"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
@@ -4410,7 +4416,7 @@
       <c r="H51" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="20" t="s">
         <v>228</v>
       </c>
       <c r="J51" s="11" t="s">
@@ -4419,7 +4425,7 @@
       <c r="K51" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="L51" s="19"/>
+      <c r="L51" s="18"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
@@ -4449,19 +4455,19 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="H52" s="20" t="s">
         <v>238</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="J52" s="19" t="s">
+      <c r="J52" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="K52" s="20" t="s">
+      <c r="K52" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="L52" s="19" t="s">
+      <c r="L52" s="18" t="s">
         <v>234</v>
       </c>
       <c r="M52" s="11" t="s">
@@ -4497,7 +4503,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H53" s="20" t="s">
         <v>238</v>
       </c>
       <c r="I53" s="11" t="s">
@@ -4506,10 +4512,10 @@
       <c r="J53" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="K53" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="L53" s="19"/>
+      <c r="K53" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="L53" s="18"/>
       <c r="M53" s="11" t="s">
         <v>128</v>
       </c>
@@ -4543,7 +4549,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H54" s="21" t="s">
+      <c r="H54" s="20" t="s">
         <v>238</v>
       </c>
       <c r="I54" s="11" t="s">
@@ -4555,7 +4561,7 @@
       <c r="K54" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="L54" s="19"/>
+      <c r="L54" s="18"/>
       <c r="M54" s="11" t="s">
         <v>128</v>
       </c>
@@ -4589,7 +4595,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H55" s="21" t="s">
+      <c r="H55" s="20" t="s">
         <v>238</v>
       </c>
       <c r="I55" s="11" t="s">
@@ -4601,7 +4607,7 @@
       <c r="K55" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="L55" s="19"/>
+      <c r="L55" s="18"/>
       <c r="M55" s="11" t="s">
         <v>128</v>
       </c>
@@ -4635,7 +4641,7 @@
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="H56" s="21" t="s">
+      <c r="H56" s="20" t="s">
         <v>238</v>
       </c>
       <c r="I56" s="11" t="s">
@@ -4647,7 +4653,7 @@
       <c r="K56" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="L56" s="19"/>
+      <c r="L56" s="18"/>
       <c r="M56" s="11" t="s">
         <v>128</v>
       </c>
@@ -4681,7 +4687,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H57" s="21" t="s">
+      <c r="H57" s="20" t="s">
         <v>238</v>
       </c>
       <c r="I57" s="11" t="s">
@@ -4693,7 +4699,7 @@
       <c r="K57" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="L57" s="19"/>
+      <c r="L57" s="18"/>
       <c r="M57" s="11" t="s">
         <v>144</v>
       </c>
@@ -4727,7 +4733,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H58" s="21" t="s">
+      <c r="H58" s="20" t="s">
         <v>238</v>
       </c>
       <c r="I58" s="11" t="s">
@@ -4739,7 +4745,7 @@
       <c r="K58" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="L58" s="19"/>
+      <c r="L58" s="18"/>
       <c r="M58" s="11" t="s">
         <v>128</v>
       </c>
@@ -4773,7 +4779,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H59" s="21" t="s">
+      <c r="H59" s="20" t="s">
         <v>238</v>
       </c>
       <c r="I59" s="11" t="s">
@@ -4785,7 +4791,7 @@
       <c r="K59" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="L59" s="19"/>
+      <c r="L59" s="18"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
@@ -4815,7 +4821,7 @@
         <f t="shared" si="1"/>
         <v>96.5</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="H60" s="20" t="s">
         <v>238</v>
       </c>
       <c r="I60" s="11" t="s">
@@ -4827,7 +4833,7 @@
       <c r="K60" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="L60" s="19"/>
+      <c r="L60" s="18"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
@@ -4857,7 +4863,7 @@
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H61" s="20" t="s">
         <v>238</v>
       </c>
       <c r="I61" s="11" t="s">
@@ -4869,7 +4875,7 @@
       <c r="K61" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="L61" s="19"/>
+      <c r="L61" s="18"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
@@ -4899,7 +4905,7 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H62" s="20" t="s">
         <v>238</v>
       </c>
       <c r="I62" s="11" t="s">
@@ -4911,7 +4917,7 @@
       <c r="K62" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="L62" s="19"/>
+      <c r="L62" s="18"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
@@ -4941,7 +4947,7 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="H63" s="21" t="s">
+      <c r="H63" s="20" t="s">
         <v>238</v>
       </c>
       <c r="I63" s="11" t="s">
@@ -4953,7 +4959,7 @@
       <c r="K63" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="L63" s="19"/>
+      <c r="L63" s="18"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
@@ -4983,7 +4989,7 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H64" s="21" t="s">
+      <c r="H64" s="20" t="s">
         <v>238</v>
       </c>
       <c r="I64" s="11" t="s">
@@ -4992,10 +4998,10 @@
       <c r="J64" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="K64" s="20" t="s">
+      <c r="K64" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="L64" s="19"/>
+      <c r="L64" s="18"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
@@ -5029,13 +5035,13 @@
       <c r="I65" s="12">
         <v>12</v>
       </c>
-      <c r="J65" s="19" t="s">
+      <c r="J65" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="K65" s="20" t="s">
+      <c r="K65" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="L65" s="19" t="s">
+      <c r="L65" s="18" t="s">
         <v>236</v>
       </c>
       <c r="M65" s="11" t="s">
@@ -5073,13 +5079,13 @@
         <v>171</v>
       </c>
       <c r="I66" s="13"/>
-      <c r="J66" s="19" t="s">
+      <c r="J66" s="18" t="s">
         <v>239</v>
       </c>
       <c r="K66" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="L66" s="19" t="s">
+      <c r="L66" s="18" t="s">
         <v>240</v>
       </c>
       <c r="M66" s="13"/>
@@ -5090,7 +5096,7 @@
     <row r="67" spans="1:16" ht="18.25" customHeight="1">
       <c r="A67" s="15"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>245</v>
       </c>
       <c r="D67" s="13">
@@ -5111,13 +5117,13 @@
       <c r="I67" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J67" s="19" t="s">
+      <c r="J67" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="K67" s="20" t="s">
+      <c r="K67" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L67" s="19" t="s">
+      <c r="L67" s="18" t="s">
         <v>243</v>
       </c>
       <c r="M67" s="13"/>
@@ -5128,7 +5134,7 @@
     <row r="68" spans="1:16" ht="18.25" customHeight="1">
       <c r="A68" s="15"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>246</v>
       </c>
       <c r="D68" s="13">
@@ -5149,14 +5155,14 @@
       <c r="I68" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="J68" s="19" t="s">
+      <c r="J68" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="K68" s="20" t="s">
+      <c r="K68" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L68" s="19"/>
-      <c r="M68" s="21" t="s">
+      <c r="L68" s="18"/>
+      <c r="M68" s="20" t="s">
         <v>248</v>
       </c>
       <c r="N68" s="13"/>
@@ -5166,7 +5172,7 @@
     <row r="69" spans="1:16" ht="18.25" customHeight="1">
       <c r="A69" s="15"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>247</v>
       </c>
       <c r="D69" s="13">
@@ -5187,13 +5193,13 @@
       <c r="I69" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="J69" s="19" t="s">
+      <c r="J69" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="K69" s="20" t="s">
+      <c r="K69" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L69" s="19"/>
+      <c r="L69" s="18"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
@@ -5202,7 +5208,7 @@
     <row r="70" spans="1:16" ht="18.25" customHeight="1">
       <c r="A70" s="15"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>249</v>
       </c>
       <c r="D70" s="13">
@@ -5223,13 +5229,13 @@
       <c r="I70" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="J70" s="19" t="s">
+      <c r="J70" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="K70" s="20" t="s">
+      <c r="K70" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L70" s="19"/>
+      <c r="L70" s="18"/>
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
@@ -5238,7 +5244,7 @@
     <row r="71" spans="1:16" ht="18.25" customHeight="1">
       <c r="A71" s="15"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>250</v>
       </c>
       <c r="D71" s="13">
@@ -5259,14 +5265,14 @@
       <c r="I71" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="J71" s="19" t="s">
+      <c r="J71" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="K71" s="20" t="s">
+      <c r="K71" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L71" s="19"/>
-      <c r="M71" s="21" t="s">
+      <c r="L71" s="18"/>
+      <c r="M71" s="20" t="s">
         <v>248</v>
       </c>
       <c r="N71" s="13"/>
@@ -5276,7 +5282,7 @@
     <row r="72" spans="1:16" ht="18.25" customHeight="1">
       <c r="A72" s="15"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>252</v>
       </c>
       <c r="D72" s="13">
@@ -5297,13 +5303,13 @@
       <c r="I72" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="J72" s="19" t="s">
+      <c r="J72" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="K72" s="20" t="s">
+      <c r="K72" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L72" s="19"/>
+      <c r="L72" s="18"/>
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
@@ -5312,7 +5318,7 @@
     <row r="73" spans="1:16" ht="18.25" customHeight="1">
       <c r="A73" s="15"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>253</v>
       </c>
       <c r="D73" s="13">
@@ -5333,13 +5339,13 @@
       <c r="I73" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J73" s="19" t="s">
+      <c r="J73" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="K73" s="20" t="s">
+      <c r="K73" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L73" s="19"/>
+      <c r="L73" s="18"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
@@ -5348,7 +5354,7 @@
     <row r="74" spans="1:16" ht="18.25" customHeight="1">
       <c r="A74" s="15"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>254</v>
       </c>
       <c r="D74" s="13">
@@ -5369,14 +5375,14 @@
       <c r="I74" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="J74" s="19" t="s">
+      <c r="J74" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="K74" s="20" t="s">
+      <c r="K74" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L74" s="19"/>
-      <c r="M74" s="21" t="s">
+      <c r="L74" s="18"/>
+      <c r="M74" s="20" t="s">
         <v>248</v>
       </c>
       <c r="N74" s="13"/>
@@ -5386,7 +5392,7 @@
     <row r="75" spans="1:16" ht="18.25" customHeight="1">
       <c r="A75" s="15"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>255</v>
       </c>
       <c r="D75" s="13">
@@ -5407,13 +5413,13 @@
       <c r="I75" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="J75" s="19" t="s">
+      <c r="J75" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="K75" s="20" t="s">
+      <c r="K75" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L75" s="19"/>
+      <c r="L75" s="18"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
@@ -5422,7 +5428,7 @@
     <row r="76" spans="1:16" ht="18.25" customHeight="1">
       <c r="A76" s="15"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>256</v>
       </c>
       <c r="D76" s="13">
@@ -5443,13 +5449,13 @@
       <c r="I76" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="J76" s="19" t="s">
+      <c r="J76" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="K76" s="20" t="s">
+      <c r="K76" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L76" s="19"/>
+      <c r="L76" s="18"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
@@ -5458,7 +5464,7 @@
     <row r="77" spans="1:16" ht="18.25" customHeight="1">
       <c r="A77" s="15"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>257</v>
       </c>
       <c r="D77" s="13">
@@ -5479,13 +5485,13 @@
       <c r="I77" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="J77" s="19" t="s">
+      <c r="J77" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="K77" s="20" t="s">
+      <c r="K77" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L77" s="19"/>
+      <c r="L77" s="18"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
@@ -5507,13 +5513,13 @@
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
-      <c r="J78" s="19" t="s">
+      <c r="J78" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="K78" s="20" t="s">
+      <c r="K78" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="L78" s="19" t="s">
+      <c r="L78" s="18" t="s">
         <v>258</v>
       </c>
       <c r="M78" s="13"/>
@@ -5551,13 +5557,13 @@
       <c r="I79" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="J79" s="19" t="s">
+      <c r="J79" s="18" t="s">
         <v>259</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="L79" s="19" t="s">
+      <c r="L79" s="18" t="s">
         <v>261</v>
       </c>
       <c r="M79" s="13"/>
@@ -5599,7 +5605,7 @@
       <c r="K80" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="L80" s="19"/>
+      <c r="L80" s="18"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
@@ -5633,7 +5639,7 @@
       <c r="K81" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="L81" s="19"/>
+      <c r="L81" s="18"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
